--- a/docs/JavaBord_styETガントチャート.xlsx
+++ b/docs/JavaBord_styETガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83A8FC7-8910-48E6-8AED-B3731A0B5F51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A77763-40E6-4855-B3B9-EB46688D87AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28956" windowHeight="16212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,8 +29,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作成者</author>
+  </authors>
+  <commentList>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{A43549FA-CD2F-4FCA-A5CE-EC23EBD4BDF7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>作成者:
+Servletを作成してから。
+ドキュメント作成フェーズでやる</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>セル B3 に、プロジェクト主任の名前を入力します。セル E3 には、プロジェクトの開始日を入力します。プロジェクトの開始: ラベルはセル C3 にあります。</t>
   </si>
@@ -90,9 +117,6 @@
   </si>
   <si>
     <t>サンプル フェーズ タイトル ブロック</t>
-  </si>
-  <si>
-    <t>これは空の行です</t>
   </si>
   <si>
     <t>この行は、プロジェクトのスケジュールの終了を表します。この行には何も入力しないでください。
@@ -367,6 +391,24 @@
     <rPh sb="3" eb="5">
       <t>タケウチ</t>
     </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>田久保</t>
+    <rPh sb="0" eb="3">
+      <t>タクボ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="19"/>
   </si>
   <si>
@@ -398,7 +440,7 @@
     <numFmt numFmtId="180" formatCode="yy/m/d;@"/>
     <numFmt numFmtId="181" formatCode="d"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -721,6 +763,14 @@
       <color indexed="12"/>
       <name val="Meiryo UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="45">
@@ -1274,7 +1324,7 @@
     <xf numFmtId="0" fontId="1" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1474,18 +1524,6 @@
     <xf numFmtId="180" fontId="33" fillId="10" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="12" applyFont="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="11" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="37" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="33" fillId="0" borderId="2" xfId="10" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1532,6 +1570,13 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="21" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1547,13 +1592,6 @@
     <xf numFmtId="179" fontId="33" fillId="0" borderId="18" xfId="9" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - アクセント 1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1611,7 +1649,37 @@
     <cellStyle name="名前" xfId="11" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="良い" xfId="18" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1738,15 +1806,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDo_リスト" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="totalRow" dxfId="9"/>
-      <tableStyleElement type="firstColumn" dxfId="8"/>
-      <tableStyleElement type="lastColumn" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="secondRowStripe" dxfId="5"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="totalRow" dxfId="12"/>
+      <tableStyleElement type="firstColumn" dxfId="11"/>
+      <tableStyleElement type="lastColumn" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="secondRowStripe" dxfId="8"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2157,18 +2225,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BL32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="77" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="77" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.6328125" style="4" customWidth="1"/>
     <col min="2" max="2" width="17.1796875" style="2" customWidth="1"/>
@@ -2185,12 +2253,12 @@
     <col min="71" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:64" ht="30" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="24"/>
@@ -2199,15 +2267,15 @@
       <c r="G1" s="27"/>
       <c r="H1" s="1"/>
       <c r="I1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:64" ht="30" customHeight="1">
       <c r="A2" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -2215,131 +2283,131 @@
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="I2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" ht="30" customHeight="1">
       <c r="A3" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="98" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="99"/>
-      <c r="E3" s="96">
+        <v>12</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="90"/>
+      <c r="E3" s="95">
         <v>45314</v>
       </c>
-      <c r="F3" s="97"/>
+      <c r="F3" s="96"/>
       <c r="G3" s="27"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" ht="30" customHeight="1">
       <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="27"/>
-      <c r="C4" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="99"/>
+      <c r="C4" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="90"/>
       <c r="E4" s="32">
         <v>1</v>
       </c>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
-      <c r="I4" s="93">
+      <c r="I4" s="92">
         <f>I5</f>
         <v>45312</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="93">
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="92">
         <f>P5</f>
         <v>45319</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="93">
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="92">
         <f>W5</f>
         <v>45326</v>
       </c>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="93">
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="92">
         <f>AD5</f>
         <v>45333</v>
       </c>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="93">
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="92">
         <f>AK5</f>
         <v>45340</v>
       </c>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="93">
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="92">
         <f>AR5</f>
         <v>45347</v>
       </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="93">
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="93"/>
+      <c r="AW4" s="93"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="92">
         <f>AY5</f>
         <v>45354</v>
       </c>
-      <c r="AZ4" s="94"/>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="95"/>
-      <c r="BF4" s="93">
+      <c r="AZ4" s="93"/>
+      <c r="BA4" s="93"/>
+      <c r="BB4" s="93"/>
+      <c r="BC4" s="93"/>
+      <c r="BD4" s="93"/>
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="92">
         <f>BF5</f>
         <v>45361</v>
       </c>
-      <c r="BG4" s="94"/>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="95"/>
+      <c r="BG4" s="93"/>
+      <c r="BH4" s="93"/>
+      <c r="BI4" s="93"/>
+      <c r="BJ4" s="93"/>
+      <c r="BK4" s="93"/>
+      <c r="BL4" s="94"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" ht="15" customHeight="1">
       <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
       <c r="I5" s="7">
         <f>プロジェクト_開始-WEEKDAY(プロジェクト_開始,1)+1+7*(週_表示-1)</f>
         <v>45312</v>
@@ -2565,28 +2633,28 @@
         <v>45367</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1">
       <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="F6" s="34" t="s">
         <v>19</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>20</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" s="11" t="str">
         <f t="shared" ref="I6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
@@ -2813,7 +2881,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A7" s="28" t="s">
         <v>4</v>
       </c>
@@ -2884,12 +2952,12 @@
       <c r="BK7" s="12"/>
       <c r="BL7" s="12"/>
     </row>
-    <row r="8" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="38"/>
@@ -2957,18 +3025,18 @@
       <c r="BK8" s="12"/>
       <c r="BL8" s="12"/>
     </row>
-    <row r="9" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="44">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E9" s="45">
         <v>45314</v>
@@ -3038,18 +3106,18 @@
       <c r="BK9" s="12"/>
       <c r="BL9" s="12"/>
     </row>
-    <row r="10" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A10" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="44">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E10" s="45">
         <v>45314</v>
@@ -3119,16 +3187,16 @@
       <c r="BK10" s="12"/>
       <c r="BL10" s="12"/>
     </row>
-    <row r="11" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A11" s="21"/>
       <c r="B11" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="44">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E11" s="45">
         <v>45314</v>
@@ -3195,13 +3263,13 @@
       <c r="BK11" s="12"/>
       <c r="BL11" s="12"/>
     </row>
-    <row r="12" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="28"/>
       <c r="B12" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="44">
         <v>0.3</v>
@@ -3274,16 +3342,16 @@
       <c r="BK12" s="12"/>
       <c r="BL12" s="12"/>
     </row>
-    <row r="13" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="28"/>
       <c r="B13" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="44">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E13" s="45">
         <v>45314</v>
@@ -3353,16 +3421,16 @@
       <c r="BK13" s="12"/>
       <c r="BL13" s="12"/>
     </row>
-    <row r="14" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A14" s="28"/>
       <c r="B14" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="44">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E14" s="45">
         <v>45314</v>
@@ -3432,12 +3500,12 @@
       <c r="BK14" s="12"/>
       <c r="BL14" s="12"/>
     </row>
-    <row r="15" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A15" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="47"/>
       <c r="D15" s="48"/>
@@ -3505,15 +3573,17 @@
       <c r="BK15" s="12"/>
       <c r="BL15" s="12"/>
     </row>
-    <row r="16" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="21"/>
       <c r="B16" s="52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="53"/>
       <c r="E16" s="54">
         <v>45320</v>
       </c>
@@ -3582,13 +3652,17 @@
       <c r="BK16" s="12"/>
       <c r="BL16" s="12"/>
     </row>
-    <row r="17" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="28"/>
       <c r="B17" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
+        <v>47</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="53">
+        <v>0.5</v>
+      </c>
       <c r="E17" s="54">
         <v>45320</v>
       </c>
@@ -3657,13 +3731,17 @@
       <c r="BK17" s="12"/>
       <c r="BL17" s="12"/>
     </row>
-    <row r="18" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A18" s="28"/>
       <c r="B18" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
+        <v>48</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="53">
+        <v>0.1</v>
+      </c>
       <c r="E18" s="54">
         <v>45323</v>
       </c>
@@ -3732,15 +3810,17 @@
       <c r="BK18" s="12"/>
       <c r="BL18" s="12"/>
     </row>
-    <row r="19" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A19" s="28"/>
       <c r="B19" s="51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="53"/>
+        <v>62</v>
+      </c>
+      <c r="D19" s="53">
+        <v>0.1</v>
+      </c>
       <c r="E19" s="54">
         <v>45323</v>
       </c>
@@ -3809,15 +3889,17 @@
       <c r="BK19" s="12"/>
       <c r="BL19" s="12"/>
     </row>
-    <row r="20" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A20" s="28"/>
       <c r="B20" s="51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="53"/>
+        <v>62</v>
+      </c>
+      <c r="D20" s="53">
+        <v>0</v>
+      </c>
       <c r="E20" s="54">
         <v>45323</v>
       </c>
@@ -3886,12 +3968,12 @@
       <c r="BK20" s="12"/>
       <c r="BL20" s="12"/>
     </row>
-    <row r="21" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="28" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="56"/>
       <c r="D21" s="57"/>
@@ -3959,10 +4041,10 @@
       <c r="BK21" s="12"/>
       <c r="BL21" s="12"/>
     </row>
-    <row r="22" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A22" s="28"/>
       <c r="B22" s="60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="61"/>
       <c r="D22" s="62"/>
@@ -4034,10 +4116,10 @@
       <c r="BK22" s="12"/>
       <c r="BL22" s="12"/>
     </row>
-    <row r="23" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A23" s="28"/>
       <c r="B23" s="60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="61"/>
       <c r="D23" s="62"/>
@@ -4109,10 +4191,10 @@
       <c r="BK23" s="12"/>
       <c r="BL23" s="12"/>
     </row>
-    <row r="24" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A24" s="28"/>
       <c r="B24" s="60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="61"/>
       <c r="D24" s="62"/>
@@ -4184,12 +4266,12 @@
       <c r="BK24" s="12"/>
       <c r="BL24" s="12"/>
     </row>
-    <row r="25" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A25" s="28" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="65"/>
       <c r="D25" s="66"/>
@@ -4257,10 +4339,10 @@
       <c r="BK25" s="12"/>
       <c r="BL25" s="12"/>
     </row>
-    <row r="26" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A26" s="28"/>
       <c r="B26" s="69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="70"/>
       <c r="D26" s="71"/>
@@ -4332,10 +4414,10 @@
       <c r="BK26" s="12"/>
       <c r="BL26" s="12"/>
     </row>
-    <row r="27" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A27" s="28"/>
       <c r="B27" s="69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="70"/>
       <c r="D27" s="71"/>
@@ -4407,19 +4489,23 @@
       <c r="BK27" s="12"/>
       <c r="BL27" s="12"/>
     </row>
-    <row r="28" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="73"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
+    <row r="28" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A28" s="28"/>
+      <c r="B28" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="70"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="72">
+        <v>45348</v>
+      </c>
+      <c r="F28" s="72">
+        <v>45350</v>
+      </c>
       <c r="G28" s="41"/>
-      <c r="H28" s="13" t="str">
+      <c r="H28" s="13">
         <f t="shared" si="6"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -4478,18 +4564,18 @@
       <c r="BK28" s="12"/>
       <c r="BL28" s="12"/>
     </row>
-    <row r="29" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A29" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="82"/>
+        <v>10</v>
+      </c>
+      <c r="B29" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="74"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="78"/>
       <c r="H29" s="16" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4551,23 +4637,18 @@
       <c r="BK29" s="17"/>
       <c r="BL29" s="17"/>
     </row>
-    <row r="30" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" ht="30" customHeight="1">
       <c r="G30" s="18"/>
     </row>
-    <row r="31" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" ht="30" customHeight="1">
       <c r="C31" s="3"/>
       <c r="F31" s="19"/>
     </row>
-    <row r="32" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" ht="30" customHeight="1">
       <c r="C32" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4575,10 +4656,15 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
-  <conditionalFormatting sqref="D7:D29">
-    <cfRule type="dataBar" priority="14">
+  <conditionalFormatting sqref="D7:D27 D29">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4591,16 +4677,43 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL29">
-    <cfRule type="expression" dxfId="2" priority="33">
+  <conditionalFormatting sqref="I5:BL27 I29:BL29">
+    <cfRule type="expression" dxfId="5" priority="37">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL29">
-    <cfRule type="expression" dxfId="1" priority="27">
+  <conditionalFormatting sqref="I7:BL27 I29:BL29">
+    <cfRule type="expression" dxfId="4" priority="31">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="32" stopIfTrue="1">
+      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A6A12CD0-73DF-4076-81F8-51E9FB893114}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:BL28">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28:BL28">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4619,6 +4732,7 @@
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -4635,7 +4749,22 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D29</xm:sqref>
+          <xm:sqref>D7:D27 D29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A6A12CD0-73DF-4076-81F8-51E9FB893114}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4652,88 +4781,88 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="87.1796875" style="83" customWidth="1"/>
+    <col min="1" max="1" width="87.1796875" style="79" customWidth="1"/>
     <col min="2" max="16384" width="9.1796875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" s="85" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="84" t="s">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1"/>
+    <row r="2" spans="1:2" s="81" customFormat="1" ht="16.2">
+      <c r="A2" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="80"/>
+    </row>
+    <row r="3" spans="1:2" s="83" customFormat="1" ht="27" customHeight="1">
+      <c r="A3" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="84"/>
+      <c r="B3" s="82"/>
     </row>
-    <row r="3" spans="1:2" s="87" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="86" t="s">
+    <row r="4" spans="1:2" s="85" customFormat="1" ht="27">
+      <c r="A4" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="86"/>
     </row>
-    <row r="4" spans="1:2" s="89" customFormat="1" ht="27" x14ac:dyDescent="0.5">
-      <c r="A4" s="88" t="s">
+    <row r="5" spans="1:2" ht="66" customHeight="1">
+      <c r="A5" s="86" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="90" t="s">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1">
+      <c r="A6" s="84" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88" t="s">
+    <row r="7" spans="1:2" s="79" customFormat="1" ht="200.25" customHeight="1">
+      <c r="A7" s="87" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="83" customFormat="1" ht="200.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="91" t="s">
+    <row r="8" spans="1:2" s="85" customFormat="1" ht="27">
+      <c r="A8" s="84" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="89" customFormat="1" ht="27" x14ac:dyDescent="0.5">
-      <c r="A8" s="88" t="s">
+    <row r="9" spans="1:2" ht="45">
+      <c r="A9" s="86" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.3">
-      <c r="A9" s="90" t="s">
+    <row r="10" spans="1:2" s="79" customFormat="1" ht="27.9" customHeight="1">
+      <c r="A10" s="88" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="83" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="92" t="s">
+    <row r="11" spans="1:2" s="85" customFormat="1" ht="27">
+      <c r="A11" s="84" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="89" customFormat="1" ht="27" x14ac:dyDescent="0.5">
-      <c r="A11" s="88" t="s">
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="86" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.3">
-      <c r="A12" s="90" t="s">
+    <row r="13" spans="1:2" s="79" customFormat="1" ht="27.9" customHeight="1">
+      <c r="A13" s="88" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="83" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="92" t="s">
+    <row r="14" spans="1:2" s="85" customFormat="1" ht="27">
+      <c r="A14" s="84" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="89" customFormat="1" ht="27" x14ac:dyDescent="0.5">
-      <c r="A14" s="88" t="s">
+    <row r="15" spans="1:2" ht="62.25" customHeight="1">
+      <c r="A15" s="86" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="90" t="s">
+    <row r="16" spans="1:2" ht="54.75" customHeight="1">
+      <c r="A16" s="86" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="90" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
